--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982054.5525543495</v>
+        <v>979535.8841398708</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673417</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>94.71198860222727</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>20.75054951475536</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406537</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>7.631737360906536</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>33.49243916279219</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>223.3922079480015</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>144.6615540031081</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>78.86261552750632</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>163.4879632450833</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439235</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.83188548727787</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550703</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300646</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238004</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114088</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
-        <v>33.26275892921451</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403511</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>5.742730767351682</v>
+        <v>136.6856111842631</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337166</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850358</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>175.6468795304075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696299</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>253.2918698186432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703267</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740355</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>154.5058101250899</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.155784569984</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389243</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.939995452456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634801</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>167.3637267182083</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098631</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833707</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>172.364557447422</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>164.93672337014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.262284242502</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.262284242502</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2466.67065304437</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2257.925011650194</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2257.925011650194</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1926.862124306624</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1926.862124306624</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>1926.862124306624</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.862124306624</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260735</v>
+        <v>790.7764984014359</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.2185726509455</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4522,16 +4522,16 @@
         <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>825.1371474485136</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>535.7199774115529</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>528.0111517944756</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.2185726509455</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.407536033267</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.407536033267</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="D5" t="n">
-        <v>978.1418374265163</v>
+        <v>754.2550354186935</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>754.2550354186935</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>343.269130629086</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005979</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270158</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.012626270158</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2100.012626270158</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1726.546868009078</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1336.407536033267</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>304.7087196946023</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>599.412276726074</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.9210616433568</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>660.9848787154499</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>660.9848787154499</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433568</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.9210616433568</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2141.344278546769</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.48361052258</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2141.344278546769</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1166.296315748942</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>808.0306171421921</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>422.242364543948</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="G11" t="n">
         <v>393.8408528035377</v>
@@ -5036,55 +5036,55 @@
         <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469197</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420334</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765429</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687107</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882248</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234599</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455669</v>
+        <v>3826.588132455665</v>
       </c>
       <c r="T11" t="n">
-        <v>3792.989386062523</v>
+        <v>3622.786021971445</v>
       </c>
       <c r="U11" t="n">
-        <v>3792.989386062523</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3461.926498718952</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469197</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469197</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7399244450273</v>
+        <v>477.1621322376508</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723377</v>
+        <v>900.4499396649609</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.341506116228</v>
+        <v>1337.65880522496</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467296</v>
+        <v>1878.967112576027</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333045</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.2860838767604</v>
+        <v>385.5135230760967</v>
       </c>
       <c r="C13" t="n">
-        <v>523.3499009488535</v>
+        <v>216.5773401481898</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000134</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176203</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469197</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469197</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457711</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.5002252888922</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542995</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551107</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551107</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551107</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551107</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991395</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785508</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748548</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.72712785053</v>
+        <v>606.3061022196268</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9345487070001</v>
+        <v>385.5135230760967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708296</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>698.3321947254767</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.181732834704</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>470.2455499067971</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>470.2455499067971</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>322.3324563244042</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264938</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264938</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264938</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1559.029497743452</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1269.612327706491</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1041.622776808474</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>820.8301976649437</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835334</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991039</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C28" t="n">
-        <v>697.527634571197</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>697.527634571197</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>549.614540988804</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.996070613739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6871,7 +6871,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263196</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>680.4481746984127</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>530.331535286077</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,7 +7108,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7202,22 +7202,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.66716026353</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782945</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
         <v>2327.76484885336</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2272.857469997006</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2272.857469997006</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.782243341204</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135317</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135317</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.1082042373</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093769</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>467.7318369701959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908942</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908942</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908943</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538929881</v>
+        <v>73.6605958099982</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,25 +8295,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.454437538930392</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.653499817998</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071646</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.758549118705</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>168.5013304501634</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>142.8727422508607</v>
+        <v>11.92986183394925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703403</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146327</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729099</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613728827</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.0613636353762</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>76.49076379342046</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>32.89260457060093</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194214</v>
+        <v>165.5241382922719</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459234</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>62.89964020219841</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389245</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294725</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.89198472948218</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>84.7739166056211</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.4596884482321</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>8.661728554222561</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>121.586274966451</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893006.5023018192</v>
+        <v>893006.5023018188</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>971754.94147581</v>
+        <v>971754.9414758098</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>977115.1351381801</v>
+        <v>977115.13513818</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,40 +26320,40 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.8397795044</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="N2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="P2" t="n">
-        <v>443930.6298295035</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185176</v>
+        <v>143114.1392185167</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051364</v>
+        <v>166521.3471051369</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115381</v>
+        <v>37377.32855115352</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848876</v>
+        <v>43782.40655848887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
         <v>9238.079399450547</v>
@@ -26433,31 +26433,31 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756579</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214726</v>
+        <v>86093.72216214718</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892842.8562825107</v>
+        <v>-892842.8562825109</v>
       </c>
       <c r="C6" t="n">
         <v>221908.9272934087</v>
       </c>
       <c r="D6" t="n">
-        <v>62487.65729551665</v>
+        <v>62487.65729551666</v>
       </c>
       <c r="E6" t="n">
-        <v>166934.8989993889</v>
+        <v>166724.9347555452</v>
       </c>
       <c r="F6" t="n">
-        <v>165479.7310464111</v>
+        <v>165433.8260508449</v>
       </c>
       <c r="G6" t="n">
-        <v>322303.6634132611</v>
+        <v>322268.9254878248</v>
       </c>
       <c r="H6" t="n">
-        <v>333470.8996488397</v>
+        <v>333436.1617234042</v>
       </c>
       <c r="I6" t="n">
-        <v>333470.8996488398</v>
+        <v>333436.1617234039</v>
       </c>
       <c r="J6" t="n">
-        <v>165865.721838857</v>
+        <v>165830.9839134215</v>
       </c>
       <c r="K6" t="n">
-        <v>333470.8996488399</v>
+        <v>333436.161723404</v>
       </c>
       <c r="L6" t="n">
-        <v>285176.929640649</v>
+        <v>285142.1917152132</v>
       </c>
       <c r="M6" t="n">
-        <v>296093.571097686</v>
+        <v>296058.8331722504</v>
       </c>
       <c r="N6" t="n">
-        <v>289688.4930903511</v>
+        <v>289653.7551649152</v>
       </c>
       <c r="O6" t="n">
-        <v>330447.6016716151</v>
+        <v>330412.8637461794</v>
       </c>
       <c r="P6" t="n">
-        <v>333470.8996488398</v>
+        <v>333436.161723404</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086497</v>
+        <v>981.3883278086488</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012592</v>
+        <v>122.3935669012585</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218283</v>
+        <v>145.8707812218288</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063571</v>
+        <v>149.9868724063559</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063571</v>
+        <v>149.9868724063559</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063571</v>
+        <v>149.9868724063559</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.74022679656711</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>328.4904192026577</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128362</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.0779180281306</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>348.4379309094696</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>188.1554948249525</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.772408643461119</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>173.2750277963217</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>201.7849285259242</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230207</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.0000946946594</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.4191799035212</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9.169214801165515e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-7.580178862221788e-13</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.570807888177247e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.284679813628745e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.769894020931714e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.426295589983239e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.432830145133905e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485655</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508997</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307184</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726063</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216981</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857436</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898398</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294417</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615145</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895593</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356985</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188523</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596489</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>308.7796796009603</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256423</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845338</v>
+        <v>583.7591506492901</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147148</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431816</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205476</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697592</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236087</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691798</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619744</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263713</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973098</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050063</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761899</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570622</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929616</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826915</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936829</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>304.13479817678</v>
+        <v>371.3409564478483</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>193.0419337824152</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000385</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276258</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517108</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584709</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.955268607755</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706245</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151098</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156638</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9382406266013</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457681</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>441.6251167272717</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313816</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987372</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062174</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701858</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882119</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765384</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410834</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.8756671399838</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701622</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295244</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
